--- a/_estadistica-descriptiva/basesdedatos/compara_graficas.xlsx
+++ b/_estadistica-descriptiva/basesdedatos/compara_graficas.xlsx
@@ -5,46 +5,60 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="compara_graficas" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
-    <t>id</t>
+    <t xml:space="preserve">num</t>
   </si>
   <si>
-    <t>figura</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t>A</t>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t>B</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t>C</t>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t>D</t>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t>b</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t>a</t>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t>p1</t>
+    <t xml:space="preserve">tipo</t>
   </si>
   <si>
-    <t>p2</t>
+    <t xml:space="preserve">barras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastel 2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastel 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">círculos</t>
   </si>
 </sst>
 </file>
@@ -52,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -140,15 +154,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="5.04081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="5.04081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.06632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.20408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -170,364 +189,535 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
+      <c r="B2" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>6</v>
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>5</v>
+        <v>2.2</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
+      <c r="B4" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>62</v>
+        <v>9.5</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>11</v>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
+      <c r="B5" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>60</v>
+        <v>8.8</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>20</v>
+        <v>24.25</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>15</v>
+        <v>5.1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5</v>
+        <v>3.2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
+      <c r="B6" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>55</v>
+        <v>8.3</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>10</v>
+        <v>2.2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
+      <c r="B7" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>40</v>
+        <v>9.1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>25</v>
+        <v>24.25</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>20</v>
+        <v>4.9</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>15</v>
+        <v>2.2</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="F8" s="0" t="n">
-        <v>13</v>
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
+      <c r="B9" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>20</v>
+        <v>24.5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>10</v>
+        <v>3.8</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
+      <c r="B10" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>17.5</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
+      <c r="B11" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>55</v>
+        <v>8.8</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>20</v>
+        <v>23.2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>15</v>
+        <v>5.2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>10</v>
+        <v>2.3</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
+      <c r="B12" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>55</v>
+        <v>11.1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>15</v>
+        <v>8.3</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>10</v>
+        <v>3.3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
+      <c r="B13" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>15</v>
+        <v>32.3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>6</v>
+      <c r="B14" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>60</v>
+        <v>8.6</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
+      <c r="B15" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>54</v>
+        <v>11.8</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>21</v>
+        <v>25.7</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>6</v>
+      <c r="B16" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>53</v>
+        <v>13.8</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
+        <v>25.5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>16</v>
+        <v>5.2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>6</v>
+      <c r="B17" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>75</v>
+        <v>12.3</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>12</v>
+        <v>25.8</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5</v>
+        <v>2.2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>6</v>
+      <c r="B18" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>60</v>
+        <v>13.5</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>5</v>
+        <v>2.7</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>6</v>
+      <c r="B19" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>20</v>
+        <v>25.25</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="F19" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -535,19 +725,28 @@
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>6</v>
+      <c r="B20" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>55</v>
+        <v>11.1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>20</v>
+        <v>26.2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>15</v>
+        <v>6.9</v>
       </c>
       <c r="F20" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -555,19 +754,28 @@
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>7</v>
+      <c r="B21" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>55</v>
+        <v>15.7</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="F21" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -575,39 +783,57 @@
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>7</v>
+      <c r="B22" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>55</v>
+        <v>7.4</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>12</v>
+        <v>2.2</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>7</v>
+      <c r="B23" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>55</v>
+        <v>10.4</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>20</v>
+        <v>28.7</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F23" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -615,1069 +841,937 @@
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>7</v>
+      <c r="B24" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>55</v>
+        <v>16.3</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>20</v>
+        <v>32.5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5</v>
+        <v>2.2</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="F25" s="0" t="n">
-        <v>5</v>
+        <v>2.6</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>7</v>
+      <c r="B26" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>55</v>
+        <v>9.8</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>5</v>
+        <v>2.2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>7</v>
+      <c r="B27" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>5</v>
+        <v>3.5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>7</v>
+      <c r="B28" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>35</v>
+        <v>28.2</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>2.1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>7</v>
+      <c r="B29" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>65</v>
+        <v>14.2</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>15</v>
+        <v>28.5</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>13</v>
+        <v>8.3</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>7</v>
+        <v>2.3</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>7</v>
+      <c r="B30" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>60</v>
+        <v>11.1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>7</v>
+      <c r="B31" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>65</v>
+        <v>12.4</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>20</v>
+        <v>24.2</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>5</v>
+        <v>2.2</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>7</v>
+      <c r="B32" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>55</v>
+        <v>11.03</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>20</v>
+        <v>22.06</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>10</v>
+        <v>3.7</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>7</v>
+      <c r="B33" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>15</v>
+        <v>5.3</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>7</v>
+      <c r="B34" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>5</v>
+        <v>3.5</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>7</v>
+      <c r="B35" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>7</v>
+      <c r="B36" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>10</v>
+        <v>2.05</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="F37" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>7</v>
+      <c r="B38" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>8</v>
+        <v>2.8</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>7</v>
+      <c r="B39" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>20</v>
+        <v>24.5</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>14.5</v>
+        <v>6.5</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>10.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>7</v>
+      <c r="B40" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>60</v>
+        <v>17.3</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>20</v>
+        <v>34.3</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>12</v>
+        <v>7.3</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>8</v>
+        <v>3.5</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>7</v>
+      <c r="B41" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>8</v>
+      <c r="B42" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>55</v>
+        <v>8.9</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>20</v>
+        <v>29.1</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>17</v>
+        <v>5.6</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>8</v>
+      <c r="B43" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>10.5</v>
+        <v>4</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>8</v>
+      <c r="B44" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>20</v>
+        <v>37.8</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>8</v>
+        <v>2.9</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>8</v>
+      <c r="B45" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>8</v>
+      <c r="B46" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>57</v>
+        <v>15.7</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>17</v>
+        <v>36.2</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>15</v>
+        <v>6.3</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>11</v>
+        <v>2.8</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>8</v>
+      <c r="B47" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>55</v>
+        <v>12.8</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>25</v>
+        <v>28.5</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>8</v>
+      <c r="B48" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>60</v>
+        <v>15.2</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>20</v>
+        <v>28.4</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>10</v>
+        <v>2.3</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>8</v>
+      <c r="B49" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>8</v>
+      <c r="B50" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>60</v>
+        <v>13.6</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>20</v>
+        <v>24.2</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>15</v>
+        <v>8.7</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>5</v>
+        <v>2.1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>8</v>
+      <c r="B51" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>60</v>
+        <v>11.7</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>25</v>
+        <v>21.2</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>5</v>
+        <v>3.2</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>8</v>
+      <c r="B52" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>55</v>
+        <v>10.1</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>8</v>
+      <c r="B53" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>55</v>
+        <v>24.4</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>20</v>
+        <v>36.2</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>10</v>
+        <v>2.5</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>8</v>
+      <c r="B54" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>60</v>
+        <v>14.8</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>11</v>
+        <v>6.3</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>9</v>
+        <v>2.5</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>8</v>
+      <c r="B55" s="0" t="n">
+        <v>48.5</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>55</v>
+        <v>11.2</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>20</v>
+        <v>30.8</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>69.6</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>57.143</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>14.286</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>10.714</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>17.857</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>